--- a/src/main/resources/export/excel/demo.xlsx
+++ b/src/main/resources/export/excel/demo.xlsx
@@ -394,19 +394,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DemoMainConfig</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoConfig</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>T_demo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>t_demo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.project.core.config.data.demo.DemoConfig</t>
+  </si>
+  <si>
+    <t>com.project.core.config.data.demo.DemoMainConfig</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +850,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -872,9 +871,8 @@
         <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4"/>
+        <v>80</v>
+      </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7">
@@ -1008,7 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.5"/>
   <cols>
@@ -1026,13 +1026,13 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:19">
